--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168150.8121102452</v>
+        <v>163091.2017011537</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12729019.17872461</v>
+        <v>12729019.1787246</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18807999.35941039</v>
+        <v>18807999.35941038</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3812708.744908394</v>
+        <v>3769667.918884637</v>
       </c>
     </row>
     <row r="11">
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>164.9366423243501</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.29147329573809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,10 +2329,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>65.59588116322358</v>
       </c>
       <c r="G23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Y23" t="n">
-        <v>65.59588116322361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>87.19167727179405</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>67.88895618620286</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>211.6296614683115</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W25" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>229.9609751381512</v>
+        <v>158.6203597839278</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="X26" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>202.5496269016835</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="Y26" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>141.8420555911766</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>60.34675615824615</v>
       </c>
       <c r="G27" t="n">
         <v>118.8592197488542</v>
@@ -2652,7 +2654,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>79.88764742793462</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>229.9609751381512</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.19368839729514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>46.39658611529718</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>211.2450056236571</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>79.3667956667111</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>56.56307460290088</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W31" t="n">
-        <v>229.9609751381512</v>
+        <v>26.85687867463474</v>
       </c>
       <c r="X31" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,13 +3037,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="E32" t="n">
-        <v>37.70120739332342</v>
+        <v>164.9366423243501</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3111,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>72.7858808342678</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9399310463982</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D35" t="n">
-        <v>229.9609751381512</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>92.94867414296913</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>23.89249938606035</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>11.51362809524407</v>
       </c>
       <c r="T37" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V37" t="n">
-        <v>202.5496269016834</v>
-      </c>
       <c r="W37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37.70120739332344</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>211.2450056236571</v>
       </c>
       <c r="H38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>92.94867414296913</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
@@ -3633,7 +3635,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.2146267151443044</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.761703922407231</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>229.9609751381512</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>132.244054175871</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>46.39658611529719</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>164.9366423243502</v>
       </c>
     </row>
     <row r="42">
@@ -3819,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3873,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>87.17967377681612</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.27372296392322</v>
+        <v>35.97811354013456</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X43" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>37.70120739332352</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4059,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.2146267151443044</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>48.47284493517304</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>250.6806912819119</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>250.6806912819119</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>246.0582433978217</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>473.7196087845913</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>701.380974171361</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>734.998340411656</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>881.8509868381266</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>881.8509868381266</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>881.8509868381266</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>881.8509868381266</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>649.5671735672668</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>482.9645045527716</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>482.9645045527716</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>250.6806912819119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>693.3310550342148</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>542.676824594307</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>412.5878572157874</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>276.1413663266751</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>276.1413663266751</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>156.0815483985396</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>67.7841319991405</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>131.5118602307795</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>359.1732256175491</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>586.8345910043187</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>692.182535165835</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>692.182535165835</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>692.182535165835</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>692.182535165835</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>895.9268574506692</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>895.9268574506692</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>895.9268574506692</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>895.9268574506692</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>895.9268574506692</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>895.9268574506692</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>895.9268574506692</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>845.1273894751762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>100.231919120994</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>264.3595589947938</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>450.6511373330578</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>633.8407713642671</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>796.5455384059751</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>916.4217041825536</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>687.5600872817448</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>455.276274010885</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>222.9924607400252</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>621.3016214603068</v>
+        <v>455.276274010885</v>
       </c>
       <c r="C23" t="n">
-        <v>621.3016214603068</v>
+        <v>455.276274010885</v>
       </c>
       <c r="D23" t="n">
-        <v>621.3016214603068</v>
+        <v>455.276274010885</v>
       </c>
       <c r="E23" t="n">
-        <v>389.017808189447</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="F23" t="n">
-        <v>389.017808189447</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="G23" t="n">
         <v>156.7339949185873</v>
@@ -5987,25 +5989,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J23" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K23" t="n">
-        <v>163.0466509198802</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L23" t="n">
-        <v>163.0466509198802</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M23" t="n">
-        <v>279.6756096381168</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N23" t="n">
-        <v>279.6756096381168</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O23" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P23" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q23" t="n">
         <v>919.8439005526046</v>
@@ -6032,7 +6034,7 @@
         <v>687.5600872817448</v>
       </c>
       <c r="Y23" t="n">
-        <v>621.3016214603068</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18.39687801105209</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="C24" t="n">
-        <v>18.39687801105209</v>
+        <v>106.4692792956926</v>
       </c>
       <c r="D24" t="n">
-        <v>18.39687801105209</v>
+        <v>106.4692792956926</v>
       </c>
       <c r="E24" t="n">
         <v>18.39687801105209</v>
@@ -6066,52 +6068,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J24" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K24" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L24" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M24" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N24" t="n">
-        <v>359.1732256175491</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O24" t="n">
-        <v>586.8345910043187</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P24" t="n">
-        <v>814.4959563910883</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q24" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R24" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S24" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T24" t="n">
-        <v>718.9430456495777</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U24" t="n">
-        <v>650.368342431191</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V24" t="n">
-        <v>427.828340802258</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W24" t="n">
-        <v>197.7110949355448</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X24" t="n">
-        <v>197.7110949355448</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.39687801105209</v>
+        <v>257.1235097356004</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.39687801105217</v>
+        <v>342.1294829501126</v>
       </c>
       <c r="C25" t="n">
-        <v>18.39687801105217</v>
+        <v>342.1294829501126</v>
       </c>
       <c r="D25" t="n">
-        <v>18.39687801105217</v>
+        <v>342.1294829501126</v>
       </c>
       <c r="E25" t="n">
-        <v>18.39687801105217</v>
+        <v>342.1294829501126</v>
       </c>
       <c r="F25" t="n">
-        <v>18.39687801105217</v>
+        <v>342.1294829501126</v>
       </c>
       <c r="G25" t="n">
-        <v>18.39687801105217</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H25" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I25" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J25" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K25" t="n">
         <v>100.231919120994</v>
@@ -6163,34 +6165,34 @@
         <v>796.5455384059751</v>
       </c>
       <c r="P25" t="n">
-        <v>916.4217041825536</v>
+        <v>916.4217041825538</v>
       </c>
       <c r="Q25" t="n">
-        <v>919.8439005526046</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="R25" t="n">
-        <v>919.8439005526046</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="S25" t="n">
-        <v>919.8439005526046</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="T25" t="n">
-        <v>919.8439005526046</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="U25" t="n">
-        <v>919.8439005526046</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="V25" t="n">
-        <v>706.0765657361284</v>
+        <v>687.5600872817449</v>
       </c>
       <c r="W25" t="n">
-        <v>473.7927524652686</v>
+        <v>687.5600872817449</v>
       </c>
       <c r="X25" t="n">
-        <v>241.5089391944088</v>
+        <v>527.3375016414138</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.39687801105217</v>
+        <v>527.3375016414138</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C26" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D26" t="n">
         <v>18.39687801105209</v>
@@ -6224,25 +6226,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J26" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K26" t="n">
-        <v>246.0582433978217</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L26" t="n">
-        <v>279.6756096381168</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M26" t="n">
-        <v>507.3369750248864</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N26" t="n">
-        <v>507.3369750248864</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O26" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P26" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q26" t="n">
         <v>919.8439005526046</v>
@@ -6257,19 +6259,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U26" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V26" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W26" t="n">
-        <v>482.9645045527716</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X26" t="n">
-        <v>482.9645045527716</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y26" t="n">
-        <v>482.9645045527716</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>760.996180350538</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="C27" t="n">
-        <v>617.7213767230869</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="D27" t="n">
-        <v>487.6324093445672</v>
+        <v>337.0976856784389</v>
       </c>
       <c r="E27" t="n">
-        <v>351.1859184554549</v>
+        <v>337.0976856784389</v>
       </c>
       <c r="F27" t="n">
-        <v>226.7541123385867</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G27" t="n">
-        <v>106.6942944104512</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H27" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I27" t="n">
         <v>18.39687801105209</v>
@@ -6309,13 +6311,13 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L27" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="M27" t="n">
         <v>236.8598043922958</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>464.5211697790654</v>
-      </c>
-      <c r="N27" t="n">
-        <v>692.182535165835</v>
       </c>
       <c r="O27" t="n">
         <v>692.182535165835</v>
@@ -6327,28 +6329,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R27" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S27" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T27" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U27" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V27" t="n">
-        <v>760.996180350538</v>
+        <v>697.3038989236717</v>
       </c>
       <c r="W27" t="n">
-        <v>760.996180350538</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="X27" t="n">
-        <v>760.996180350538</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="Y27" t="n">
-        <v>760.996180350538</v>
+        <v>467.1866530569586</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.39687801105209</v>
+        <v>99.09147137260223</v>
       </c>
       <c r="C28" t="n">
-        <v>18.39687801105209</v>
+        <v>99.09147137260223</v>
       </c>
       <c r="D28" t="n">
-        <v>18.39687801105209</v>
+        <v>99.09147137260223</v>
       </c>
       <c r="E28" t="n">
-        <v>18.39687801105209</v>
+        <v>99.09147137260223</v>
       </c>
       <c r="F28" t="n">
-        <v>18.39687801105209</v>
+        <v>99.09147137260223</v>
       </c>
       <c r="G28" t="n">
         <v>18.39687801105209</v>
@@ -6391,7 +6393,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M28" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N28" t="n">
         <v>633.8407713642671</v>
@@ -6406,28 +6408,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R28" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S28" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T28" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U28" t="n">
-        <v>687.5600872817448</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="V28" t="n">
-        <v>687.5600872817448</v>
+        <v>331.375284643462</v>
       </c>
       <c r="W28" t="n">
-        <v>455.276274010885</v>
+        <v>331.375284643462</v>
       </c>
       <c r="X28" t="n">
-        <v>222.9924607400252</v>
+        <v>99.09147137260223</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.6048967023534</v>
+        <v>99.09147137260223</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C29" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D29" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E29" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F29" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G29" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H29" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I29" t="n">
         <v>18.39687801105209</v>
@@ -6467,19 +6469,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L29" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M29" t="n">
-        <v>52.01424425134721</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N29" t="n">
-        <v>279.6756096381168</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O29" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P29" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q29" t="n">
         <v>919.8439005526046</v>
@@ -6488,25 +6490,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S29" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T29" t="n">
-        <v>529.8297430530719</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U29" t="n">
-        <v>297.5459297822121</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="V29" t="n">
-        <v>65.26211651135227</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="W29" t="n">
-        <v>65.26211651135227</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="X29" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y29" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>554.7959775857603</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C30" t="n">
-        <v>554.7959775857603</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D30" t="n">
-        <v>424.7070102072406</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E30" t="n">
-        <v>288.2605193181283</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F30" t="n">
-        <v>163.8287132012601</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G30" t="n">
-        <v>106.6942944104512</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H30" t="n">
         <v>18.39687801105209</v>
@@ -6540,25 +6542,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J30" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K30" t="n">
-        <v>246.0582433978217</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L30" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M30" t="n">
-        <v>701.380974171361</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N30" t="n">
-        <v>701.380974171361</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O30" t="n">
-        <v>919.8439005526046</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P30" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q30" t="n">
         <v>919.8439005526046</v>
@@ -6567,25 +6569,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S30" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T30" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U30" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V30" t="n">
-        <v>784.9132234524734</v>
+        <v>697.3038989236717</v>
       </c>
       <c r="W30" t="n">
-        <v>554.7959775857603</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="X30" t="n">
-        <v>554.7959775857603</v>
+        <v>277.8795754069702</v>
       </c>
       <c r="Y30" t="n">
-        <v>554.7959775857603</v>
+        <v>98.56535848247745</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.39687801105209</v>
+        <v>475.2239083130347</v>
       </c>
       <c r="C31" t="n">
-        <v>18.39687801105209</v>
+        <v>475.2239083130347</v>
       </c>
       <c r="D31" t="n">
-        <v>18.39687801105209</v>
+        <v>475.2239083130347</v>
       </c>
       <c r="E31" t="n">
-        <v>18.39687801105209</v>
+        <v>475.2239083130347</v>
       </c>
       <c r="F31" t="n">
-        <v>18.39687801105209</v>
+        <v>475.2239083130347</v>
       </c>
       <c r="G31" t="n">
-        <v>18.39687801105209</v>
+        <v>306.9698544124802</v>
       </c>
       <c r="H31" t="n">
-        <v>18.39687801105209</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="I31" t="n">
         <v>18.39687801105209</v>
@@ -6652,19 +6654,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U31" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="V31" t="n">
         <v>687.5600872817448</v>
       </c>
-      <c r="V31" t="n">
-        <v>455.276274010885</v>
-      </c>
       <c r="W31" t="n">
-        <v>222.9924607400252</v>
+        <v>660.431927004336</v>
       </c>
       <c r="X31" t="n">
-        <v>18.39687801105209</v>
+        <v>660.431927004336</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.39687801105209</v>
+        <v>660.431927004336</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7627189519355</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="C32" t="n">
-        <v>288.7627189519355</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="D32" t="n">
-        <v>56.47890568107576</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="E32" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F32" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G32" t="n">
         <v>18.39687801105209</v>
@@ -6701,49 +6703,49 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K32" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L32" t="n">
-        <v>18.39687801105209</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M32" t="n">
-        <v>52.01424425134721</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N32" t="n">
-        <v>279.6756096381168</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O32" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P32" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q32" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R32" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S32" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T32" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U32" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V32" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W32" t="n">
-        <v>521.0465322227953</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="X32" t="n">
-        <v>521.0465322227953</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="Y32" t="n">
-        <v>521.0465322227953</v>
+        <v>881.8509868381266</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>481.2748858339746</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C33" t="n">
-        <v>481.2748858339746</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D33" t="n">
-        <v>351.1859184554549</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E33" t="n">
-        <v>351.1859184554549</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F33" t="n">
-        <v>226.7541123385867</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G33" t="n">
-        <v>106.6942944104512</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H33" t="n">
         <v>18.39687801105209</v>
@@ -6777,25 +6779,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J33" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K33" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L33" t="n">
-        <v>18.39687801105209</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M33" t="n">
-        <v>246.0582433978217</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N33" t="n">
-        <v>246.0582433978217</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O33" t="n">
-        <v>473.7196087845913</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P33" t="n">
-        <v>701.380974171361</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q33" t="n">
         <v>919.8439005526046</v>
@@ -6804,25 +6806,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S33" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T33" t="n">
-        <v>711.3921317006877</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U33" t="n">
-        <v>711.3921317006877</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V33" t="n">
-        <v>711.3921317006877</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W33" t="n">
-        <v>481.2748858339746</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X33" t="n">
-        <v>481.2748858339746</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.2748858339746</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>511.5238206779467</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C34" t="n">
-        <v>341.3187027439359</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D34" t="n">
-        <v>341.3187027439359</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E34" t="n">
-        <v>341.3187027439359</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F34" t="n">
-        <v>183.9927679569088</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G34" t="n">
         <v>18.39687801105209</v>
@@ -6865,7 +6867,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M34" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N34" t="n">
         <v>633.8407713642671</v>
@@ -6880,28 +6882,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R34" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S34" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T34" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U34" t="n">
-        <v>919.8439005526046</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V34" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="W34" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X34" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y34" t="n">
-        <v>696.731839369248</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>250.6806912819119</v>
+        <v>455.276274010885</v>
       </c>
       <c r="C35" t="n">
-        <v>250.6806912819119</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D35" t="n">
         <v>18.39687801105209</v>
@@ -6941,19 +6943,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L35" t="n">
-        <v>246.0582433978217</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M35" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N35" t="n">
-        <v>701.380974171361</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O35" t="n">
-        <v>701.380974171361</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P35" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q35" t="n">
         <v>919.8439005526046</v>
@@ -6965,22 +6967,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T35" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U35" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V35" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W35" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X35" t="n">
-        <v>250.6806912819119</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y35" t="n">
-        <v>250.6806912819119</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>760.996180350538</v>
+        <v>530.662139822063</v>
       </c>
       <c r="C36" t="n">
-        <v>667.1086307111752</v>
+        <v>530.662139822063</v>
       </c>
       <c r="D36" t="n">
-        <v>537.0196633326556</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="E36" t="n">
         <v>400.5731724435433</v>
@@ -7017,10 +7019,10 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K36" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L36" t="n">
-        <v>246.0582433978217</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M36" t="n">
         <v>464.5211697790654</v>
@@ -7038,28 +7040,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R36" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S36" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T36" t="n">
-        <v>760.996180350538</v>
+        <v>760.7793856887761</v>
       </c>
       <c r="U36" t="n">
-        <v>760.996180350538</v>
+        <v>760.7793856887761</v>
       </c>
       <c r="V36" t="n">
-        <v>760.996180350538</v>
+        <v>760.7793856887761</v>
       </c>
       <c r="W36" t="n">
-        <v>760.996180350538</v>
+        <v>530.662139822063</v>
       </c>
       <c r="X36" t="n">
-        <v>760.996180350538</v>
+        <v>530.662139822063</v>
       </c>
       <c r="Y36" t="n">
-        <v>760.996180350538</v>
+        <v>530.662139822063</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.39687801105209</v>
+        <v>319.7453572745287</v>
       </c>
       <c r="C37" t="n">
-        <v>18.39687801105209</v>
+        <v>319.7453572745287</v>
       </c>
       <c r="D37" t="n">
-        <v>18.39687801105209</v>
+        <v>319.7453572745287</v>
       </c>
       <c r="E37" t="n">
-        <v>18.39687801105209</v>
+        <v>319.7453572745287</v>
       </c>
       <c r="F37" t="n">
-        <v>18.39687801105209</v>
+        <v>319.7453572745287</v>
       </c>
       <c r="G37" t="n">
-        <v>18.39687801105209</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="H37" t="n">
-        <v>18.39687801105209</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="I37" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="J37" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K37" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L37" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M37" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N37" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O37" t="n">
         <v>796.5455384059751</v>
@@ -7117,28 +7119,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R37" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S37" t="n">
-        <v>919.8439005526046</v>
+        <v>784.3129838162482</v>
       </c>
       <c r="T37" t="n">
-        <v>687.5600872817448</v>
+        <v>552.0291705453884</v>
       </c>
       <c r="U37" t="n">
-        <v>455.276274010885</v>
+        <v>552.0291705453884</v>
       </c>
       <c r="V37" t="n">
-        <v>250.6806912819119</v>
+        <v>319.7453572745287</v>
       </c>
       <c r="W37" t="n">
-        <v>18.39687801105209</v>
+        <v>319.7453572745287</v>
       </c>
       <c r="X37" t="n">
-        <v>18.39687801105209</v>
+        <v>319.7453572745287</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.39687801105209</v>
+        <v>319.7453572745287</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250.6806912819119</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="C38" t="n">
-        <v>250.6806912819119</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="D38" t="n">
-        <v>250.6806912819119</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="E38" t="n">
-        <v>250.6806912819119</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="F38" t="n">
-        <v>250.6806912819119</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="G38" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H38" t="n">
         <v>18.39687801105209</v>
@@ -7175,19 +7177,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K38" t="n">
+        <v>163.0466509198802</v>
+      </c>
+      <c r="L38" t="n">
         <v>390.7080163066498</v>
-      </c>
-      <c r="L38" t="n">
-        <v>507.3369750248864</v>
       </c>
       <c r="M38" t="n">
         <v>507.3369750248864</v>
       </c>
       <c r="N38" t="n">
-        <v>507.3369750248864</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O38" t="n">
-        <v>507.3369750248864</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P38" t="n">
         <v>734.998340411656</v>
@@ -7199,25 +7201,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S38" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T38" t="n">
-        <v>753.3303454936552</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U38" t="n">
-        <v>753.3303454936552</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="V38" t="n">
-        <v>521.0465322227953</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="W38" t="n">
-        <v>288.7627189519355</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="X38" t="n">
-        <v>288.7627189519355</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.7627189519355</v>
+        <v>696.3432981120213</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>760.996180350538</v>
+        <v>530.662139822063</v>
       </c>
       <c r="C39" t="n">
-        <v>667.1086307111752</v>
+        <v>530.662139822063</v>
       </c>
       <c r="D39" t="n">
-        <v>537.0196633326556</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="E39" t="n">
         <v>400.5731724435433</v>
@@ -7251,16 +7253,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J39" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K39" t="n">
-        <v>359.1732256175491</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L39" t="n">
-        <v>586.8345910043187</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M39" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N39" t="n">
         <v>692.182535165835</v>
@@ -7281,22 +7283,22 @@
         <v>760.996180350538</v>
       </c>
       <c r="T39" t="n">
-        <v>760.996180350538</v>
+        <v>760.7793856887761</v>
       </c>
       <c r="U39" t="n">
-        <v>760.996180350538</v>
+        <v>760.7793856887761</v>
       </c>
       <c r="V39" t="n">
-        <v>760.996180350538</v>
+        <v>760.7793856887761</v>
       </c>
       <c r="W39" t="n">
-        <v>760.996180350538</v>
+        <v>530.662139822063</v>
       </c>
       <c r="X39" t="n">
-        <v>760.996180350538</v>
+        <v>530.662139822063</v>
       </c>
       <c r="Y39" t="n">
-        <v>760.996180350538</v>
+        <v>530.662139822063</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.17637692257455</v>
+        <v>321.696421307985</v>
       </c>
       <c r="C40" t="n">
-        <v>20.17637692257455</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="D40" t="n">
-        <v>20.17637692257455</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="E40" t="n">
-        <v>20.17637692257455</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="F40" t="n">
-        <v>20.17637692257455</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="G40" t="n">
-        <v>20.17637692257455</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="H40" t="n">
-        <v>20.17637692257455</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="I40" t="n">
         <v>18.39687801105209</v>
@@ -7339,7 +7341,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M40" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N40" t="n">
         <v>633.8407713642671</v>
@@ -7357,25 +7359,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S40" t="n">
-        <v>717.0278167351539</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T40" t="n">
-        <v>484.7440034642941</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U40" t="n">
-        <v>252.4601901934343</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V40" t="n">
-        <v>20.17637692257455</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W40" t="n">
-        <v>20.17637692257455</v>
+        <v>455.276274010885</v>
       </c>
       <c r="X40" t="n">
-        <v>20.17637692257455</v>
+        <v>321.696421307985</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.17637692257455</v>
+        <v>321.696421307985</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250.6806912819119</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C41" t="n">
         <v>250.6806912819119</v>
       </c>
       <c r="D41" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E41" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F41" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G41" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H41" t="n">
         <v>18.39687801105209</v>
@@ -7415,46 +7417,46 @@
         <v>163.0466509198802</v>
       </c>
       <c r="L41" t="n">
-        <v>390.7080163066498</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="M41" t="n">
         <v>390.7080163066498</v>
       </c>
       <c r="N41" t="n">
-        <v>390.7080163066498</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O41" t="n">
-        <v>507.3369750248864</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P41" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q41" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R41" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S41" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T41" t="n">
-        <v>529.8297430530719</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U41" t="n">
-        <v>297.5459297822121</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V41" t="n">
-        <v>297.5459297822121</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W41" t="n">
-        <v>250.6806912819119</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="X41" t="n">
-        <v>250.6806912819119</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="Y41" t="n">
-        <v>250.6806912819119</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>429.9294054569403</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C42" t="n">
-        <v>279.2751750170326</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D42" t="n">
-        <v>279.2751750170326</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E42" t="n">
-        <v>142.8286841279203</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F42" t="n">
         <v>18.39687801105209</v>
@@ -7488,22 +7490,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J42" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K42" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L42" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M42" t="n">
         <v>464.5211697790654</v>
       </c>
       <c r="N42" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="O42" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O42" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="P42" t="n">
         <v>919.8439005526046</v>
@@ -7521,19 +7523,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U42" t="n">
-        <v>919.8439005526046</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V42" t="n">
-        <v>697.3038989236717</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W42" t="n">
-        <v>609.2436223814332</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X42" t="n">
-        <v>609.2436223814332</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y42" t="n">
-        <v>429.9294054569403</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="C43" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="D43" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="E43" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="F43" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G43" t="n">
         <v>18.39687801105209</v>
@@ -7576,7 +7578,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M43" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N43" t="n">
         <v>633.8407713642671</v>
@@ -7591,28 +7593,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R43" t="n">
-        <v>891.2845844274296</v>
+        <v>883.5023717241859</v>
       </c>
       <c r="S43" t="n">
-        <v>891.2845844274296</v>
+        <v>883.5023717241859</v>
       </c>
       <c r="T43" t="n">
-        <v>891.2845844274296</v>
+        <v>883.5023717241859</v>
       </c>
       <c r="U43" t="n">
-        <v>659.0007711565698</v>
+        <v>883.5023717241859</v>
       </c>
       <c r="V43" t="n">
-        <v>659.0007711565698</v>
+        <v>651.2185584533261</v>
       </c>
       <c r="W43" t="n">
-        <v>659.0007711565698</v>
+        <v>418.9347451824663</v>
       </c>
       <c r="X43" t="n">
-        <v>426.71695788571</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.6048967023534</v>
+        <v>186.6509319116065</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>530.662139822063</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>530.662139822063</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>760.7793856887761</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>760.7793856887761</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>760.7793856887761</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>530.662139822063</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>530.662139822063</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>530.662139822063</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>870.8814309211167</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>638.5976176502569</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>406.3138043793971</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>174.0299911085373</v>
       </c>
     </row>
   </sheetData>
@@ -9407,19 +9409,19 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M20" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P20" t="n">
-        <v>184.2583828371828</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,16 +9479,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9500,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9559,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>166.520275497658</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L22" t="n">
-        <v>253.4605344048249</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M22" t="n">
-        <v>278.4750710187352</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N22" t="n">
-        <v>268.0356382773604</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O22" t="n">
-        <v>254.3449995307766</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L23" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M23" t="n">
-        <v>267.5320806060471</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
-        <v>149.1184913377841</v>
+        <v>369.7881139451009</v>
       </c>
       <c r="O23" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P23" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9714,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>320.0213219950694</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O24" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P24" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.4002179655265</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>187.2051053267494</v>
+        <v>227.8069106117196</v>
       </c>
       <c r="M26" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N26" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O26" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P26" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9957,16 +9959,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>310.7299694642351</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>322.3480971874631</v>
+        <v>313.0567446566288</v>
       </c>
       <c r="N27" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
@@ -10115,10 +10117,10 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>153.2481697304917</v>
+        <v>373.9177923378086</v>
       </c>
       <c r="M29" t="n">
-        <v>183.681987193985</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N29" t="n">
         <v>379.0794664759352</v>
@@ -10127,10 +10129,10 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P29" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10188,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>319.5579104714845</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L30" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M30" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>313.3571814962057</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10349,25 +10351,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L32" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M32" t="n">
-        <v>183.681987193985</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N32" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O32" t="n">
-        <v>379.5248125622476</v>
+        <v>370.2334600314132</v>
       </c>
       <c r="P32" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10425,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M33" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O33" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>311.6577757632308</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10510,7 +10512,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L34" t="n">
-        <v>253.4605344048249</v>
+        <v>253.460534404825</v>
       </c>
       <c r="M34" t="n">
         <v>278.4750710187352</v>
@@ -10589,7 +10591,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>383.2091448686429</v>
+        <v>373.9177923378086</v>
       </c>
       <c r="M35" t="n">
         <v>379.6860267358784</v>
@@ -10598,13 +10600,13 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O35" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P35" t="n">
-        <v>184.2583828371828</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10665,13 +10667,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M36" t="n">
-        <v>313.0567446566288</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N36" t="n">
         <v>315.3330879923178</v>
@@ -10747,7 +10749,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
-        <v>253.460534404825</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
         <v>278.4750710187352</v>
@@ -10823,22 +10825,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>271.0551987388115</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M38" t="n">
-        <v>149.7250515977273</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N38" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O38" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10899,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>320.0213219950694</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M39" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O39" t="n">
         <v>322.6485340270401</v>
@@ -10987,7 +10989,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
-        <v>278.4750710187353</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N40" t="n">
         <v>268.0356382773604</v>
@@ -11063,22 +11065,22 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N41" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O41" t="n">
-        <v>267.3708664324162</v>
+        <v>224.1225783053243</v>
       </c>
       <c r="P41" t="n">
         <v>380.2624223790764</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>320.0213219950694</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M42" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N42" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11221,7 +11223,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>253.460534404825</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
         <v>278.4750710187352</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L44" t="n">
         <v>153.2481697304917</v>
@@ -11309,13 +11311,13 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>267.3708664324162</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11382,19 +11384,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O45" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>307.7529874266315</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11455,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23972,7 +23974,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24026,16 +24028,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>202.3524023570453</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S21" t="n">
         <v>133.5813703291298</v>
@@ -24114,7 +24116,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>127.2296014595098</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -24184,16 +24186,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.33131366983966</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24215,10 +24217,10 @@
         <v>168.5967144964697</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>347.1296129220984</v>
       </c>
       <c r="G23" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24272,7 +24274,7 @@
         <v>155.5971038781226</v>
       </c>
       <c r="Y23" t="n">
-        <v>326.9299208253813</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24287,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>47.8903487084271</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U24" t="n">
-        <v>140.0735557019418</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24351,7 +24353,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24376,10 +24378,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24421,16 +24423,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>51.68989025907254</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W25" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>1.778543856695563</v>
+        <v>73.11915921091895</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>166.5288231161317</v>
+        <v>193.9401713525995</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -24497,19 +24499,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>50.64557536806387</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="27">
@@ -24522,16 +24524,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>7.305632544332127</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>62.84073189745337</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24540,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T27" t="n">
         <v>175.2139736830806</v>
@@ -24579,10 +24581,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24613,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>86.68386593361429</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>200.7879229792761</v>
@@ -24658,16 +24660,16 @@
         <v>52.62342870236691</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W28" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>1.778543856695563</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.6872521742279</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24698,7 +24700,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>90.55715962316265</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>108.7247660653656</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>174.3130733926166</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>70.91157542984062</v>
       </c>
       <c r="C30" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>62.29614514595332</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
         <v>48.89338144820752</v>
@@ -24807,7 +24809,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
         <v>175.2139736830806</v>
@@ -24816,16 +24818,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24850,13 +24852,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24892,16 +24894,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>33.35857658923285</v>
       </c>
       <c r="W31" t="n">
-        <v>50.53612290998299</v>
+        <v>253.6402193734994</v>
       </c>
       <c r="X31" t="n">
-        <v>29.18989209316331</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -24923,13 +24925,13 @@
         <v>151.6257423573478</v>
       </c>
       <c r="E32" t="n">
-        <v>360.8564822412974</v>
+        <v>233.6210473102707</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24962,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -24977,7 +24979,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -24999,19 +25001,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
         <v>48.89338144820752</v>
@@ -25044,25 +25046,25 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T33" t="n">
-        <v>102.4280928488128</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="34">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25084,10 +25086,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>2.631582315150723</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>154.2588521405743</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25141,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D35" t="n">
-        <v>151.6257423573478</v>
+        <v>179.0370905938155</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -25205,13 +25207,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>18.71596951449399</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -25233,13 +25235,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>56.19901399253958</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>175.2139736830806</v>
+        <v>151.3214742970202</v>
       </c>
       <c r="U36" t="n">
         <v>207.9625118881446</v>
@@ -25293,7 +25295,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -25324,13 +25326,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>189.274294884032</v>
       </c>
       <c r="T37" t="n">
         <v>3.400886175297046</v>
       </c>
       <c r="U37" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>60.7699248257006</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W37" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>358.7885908609595</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25397,16 +25399,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>197.7861223332197</v>
       </c>
       <c r="H38" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25439,19 +25441,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25470,13 +25472,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>56.19901399253958</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25521,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>175.2139736830806</v>
+        <v>174.9993469679363</v>
       </c>
       <c r="U39" t="n">
         <v>207.9625118881446</v>
@@ -25530,7 +25532,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -25549,7 +25551,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25567,7 +25569,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>130.0017771868856</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25597,10 +25599,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>52.62342870236691</v>
@@ -25612,7 +25614,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>99.49546481897573</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25643,7 +25645,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>320.8924585660982</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>227.5891596642547</v>
       </c>
     </row>
     <row r="42">
@@ -25707,16 +25709,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>118.8592197488542</v>
@@ -25761,19 +25763,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>140.6363996312299</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25798,7 +25800,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>153.923765528121</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>94.38825650982558</v>
+        <v>86.68386593361424</v>
       </c>
       <c r="S43" t="n">
         <v>200.7879229792761</v>
@@ -25840,19 +25842,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X43" t="n">
         <v>1.778543856695563</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>358.7885908609594</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -25913,7 +25915,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
@@ -25947,22 +25949,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>174.9993469679363</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -26004,7 +26006,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -26026,7 +26028,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26077,16 +26079,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>234.111558905345</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>435173.5763354173</v>
+        <v>232951.5378089735</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435173.5763354174</v>
+        <v>435173.5763354173</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435173.5763354173</v>
+        <v>435173.5763354174</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>435173.5763354173</v>
+        <v>435173.5763354175</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435173.5763354174</v>
+        <v>435173.5763354175</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>435173.5763354173</v>
+        <v>435173.5763354175</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435173.5763354175</v>
+        <v>435173.5763354174</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>435173.5763354173</v>
+        <v>435173.5763354174</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>232951.5378089735</v>
+        <v>435173.5763354175</v>
       </c>
     </row>
   </sheetData>
@@ -26320,19 +26322,19 @@
         <v>45087.39441464001</v>
       </c>
       <c r="E2" t="n">
-        <v>45087.39441464001</v>
+        <v>45087.39441464</v>
       </c>
       <c r="F2" t="n">
-        <v>45087.39441464001</v>
+        <v>45087.39441464</v>
       </c>
       <c r="G2" t="n">
-        <v>45087.39441464002</v>
+        <v>45087.39441464</v>
       </c>
       <c r="H2" t="n">
-        <v>84175.94020608679</v>
+        <v>45087.39441464</v>
       </c>
       <c r="I2" t="n">
-        <v>84175.94020608679</v>
+        <v>84175.94020608682</v>
       </c>
       <c r="J2" t="n">
         <v>84175.9402060868</v>
@@ -26341,19 +26343,19 @@
         <v>84175.94020608679</v>
       </c>
       <c r="L2" t="n">
-        <v>84175.94020608677</v>
+        <v>84175.94020608679</v>
       </c>
       <c r="M2" t="n">
-        <v>84175.9402060868</v>
+        <v>84175.94020608679</v>
       </c>
       <c r="N2" t="n">
         <v>84175.94020608677</v>
       </c>
       <c r="O2" t="n">
-        <v>84175.94020608679</v>
+        <v>84175.94020608682</v>
       </c>
       <c r="P2" t="n">
-        <v>45087.39441464</v>
+        <v>84175.9402060868</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>62045.54074104943</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>61151.45246971229</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,13 +26435,13 @@
         <v>15029.13147154667</v>
       </c>
       <c r="H4" t="n">
-        <v>28522.60968068128</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="I4" t="n">
         <v>28522.60968068128</v>
       </c>
       <c r="J4" t="n">
-        <v>28522.60968068128</v>
+        <v>28522.60968068129</v>
       </c>
       <c r="K4" t="n">
         <v>28522.60968068128</v>
@@ -26448,7 +26450,7 @@
         <v>28522.60968068128</v>
       </c>
       <c r="M4" t="n">
-        <v>28522.60968068128</v>
+        <v>28522.60968068129</v>
       </c>
       <c r="N4" t="n">
         <v>28522.60968068128</v>
@@ -26457,7 +26459,7 @@
         <v>28522.60968068128</v>
       </c>
       <c r="P4" t="n">
-        <v>15029.13147154667</v>
+        <v>28522.60968068128</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13981.62728839959</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>13981.62728839959</v>
@@ -26509,7 +26511,7 @@
         <v>13981.62728839959</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906665</v>
+        <v>-3569.337056906661</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906665</v>
+        <v>-3569.337056906661</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906657</v>
+        <v>-3569.337056906654</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="F6" t="n">
         <v>30058.26294309334</v>
       </c>
       <c r="G6" t="n">
-        <v>30058.26294309335</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="H6" t="n">
-        <v>-20373.83750404351</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="I6" t="n">
-        <v>41671.70323700591</v>
+        <v>-19479.74923270634</v>
       </c>
       <c r="J6" t="n">
         <v>41671.70323700592</v>
       </c>
       <c r="K6" t="n">
+        <v>41671.70323700592</v>
+      </c>
+      <c r="L6" t="n">
+        <v>41671.70323700592</v>
+      </c>
+      <c r="M6" t="n">
         <v>41671.70323700591</v>
-      </c>
-      <c r="L6" t="n">
-        <v>41671.7032370059</v>
-      </c>
-      <c r="M6" t="n">
-        <v>41671.70323700592</v>
       </c>
       <c r="N6" t="n">
         <v>41671.7032370059</v>
       </c>
       <c r="O6" t="n">
-        <v>41671.70323700591</v>
+        <v>41671.70323700595</v>
       </c>
       <c r="P6" t="n">
-        <v>30058.26294309333</v>
+        <v>41671.70323700593</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>229.9609751381512</v>
@@ -26829,7 +26831,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36127,19 +36129,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>33.95693559625762</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M23" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="O23" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="M24" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O24" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>33.9569355962577</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="M26" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>220.6696226073169</v>
-      </c>
-      <c r="M27" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="N27" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L28" t="n">
         <v>165.78549482202</v>
@@ -36835,10 +36837,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M29" t="n">
-        <v>33.95693559625769</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N29" t="n">
         <v>229.9609751381512</v>
@@ -36847,10 +36849,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L30" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>220.6696226073168</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M32" t="n">
-        <v>33.95693559625769</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O32" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="P32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
       <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P33" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>220.6696226073168</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37232,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>165.7854948220201</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
@@ -37309,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M35" t="n">
         <v>229.9609751381512</v>
@@ -37318,13 +37320,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P35" t="n">
-        <v>33.95693559625762</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="M36" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>220.6696226073169</v>
       </c>
       <c r="N36" t="n">
         <v>229.9609751381512</v>
@@ -37467,7 +37469,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.7854948220201</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37543,22 +37545,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>117.8070290083198</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="M39" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="M39" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>229.9609751381512</v>
@@ -37707,7 +37709,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.173311452792</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37783,22 +37785,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8070290083198</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="P41" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="M42" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M42" t="n">
-        <v>106.4120648096125</v>
-      </c>
       <c r="N42" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.7854948220201</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38029,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163091.2017011537</v>
+        <v>152127.9088926437</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18807999.35941038</v>
+        <v>18807999.35941039</v>
       </c>
     </row>
     <row r="9">
@@ -2317,73 +2317,73 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>46.39658611529718</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T23" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="V23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F23" t="n">
-        <v>65.59588116322358</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>136.9537457384598</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>87.19167727179405</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>78.73482873594956</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V25" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X25" t="n">
-        <v>158.6203597839278</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W26" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="X26" t="n">
-        <v>229.9609751381512</v>
+        <v>211.2450056236571</v>
       </c>
       <c r="Y26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>60.34675615824615</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
@@ -2699,10 +2699,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>25.24748586289823</v>
       </c>
     </row>
     <row r="28">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>95.58737878262365</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>79.88764742793462</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>46.39658611529719</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>211.2450056236571</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>79.3667956667111</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>54.04252414350109</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>229.9609751381512</v>
+        <v>78.67241902514321</v>
       </c>
       <c r="W31" t="n">
-        <v>26.85687867463474</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,64 +3034,64 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>46.39658611529718</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T32" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U32" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E32" t="n">
-        <v>164.9366423243501</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="G32" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>37.61298457733328</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>153.9224157160403</v>
       </c>
       <c r="Y33" t="n">
-        <v>48.92535853381431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3240,13 +3240,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>229.9609751381512</v>
+        <v>118.1407341534379</v>
       </c>
       <c r="U34" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V34" t="n">
-        <v>109.0606995868097</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,73 +3265,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T35" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U35" t="n">
+        <v>46.39658611529722</v>
+      </c>
+      <c r="V35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C35" t="n">
+      <c r="W35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D35" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>23.89249938606035</v>
+        <v>48.92535853381427</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>11.51362809524407</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V37" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>8.78360153796395</v>
       </c>
       <c r="E38" t="n">
         <v>229.9609751381512</v>
@@ -3517,7 +3517,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G38" t="n">
-        <v>211.2450056236571</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>80.10880969107289</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
@@ -3599,10 +3599,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2146267151443044</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>48.36674055617013</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
       <c r="X40" t="n">
-        <v>132.244054175871</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,68 +3739,68 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C41" t="n">
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D41" t="n">
+      <c r="I41" t="n">
+        <v>136.9537457384598</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>65.59588116322361</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>37.61298457733328</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>164.9366423243502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>60.21695062591937</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>48.92535853381431</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>166.5715133615489</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.97811354013456</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>186.1441643578906</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.70120739332352</v>
+        <v>46.39658611529719</v>
       </c>
       <c r="C44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="E44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>46.3012454667196</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2146267151443044</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>75.97691627918033</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.47284493517304</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>455.276274010885</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="C23" t="n">
-        <v>455.276274010885</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="D23" t="n">
-        <v>455.276274010885</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="E23" t="n">
-        <v>222.9924607400252</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="F23" t="n">
-        <v>156.7339949185873</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="G23" t="n">
-        <v>156.7339949185873</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="H23" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I23" t="n">
         <v>18.39687801105209</v>
@@ -5992,19 +5992,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K23" t="n">
-        <v>246.0582433978217</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L23" t="n">
-        <v>473.7196087845913</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M23" t="n">
-        <v>473.7196087845913</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N23" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="O23" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O23" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="P23" t="n">
         <v>919.8439005526046</v>
@@ -6016,25 +6016,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S23" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T23" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U23" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V23" t="n">
-        <v>919.8439005526046</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="W23" t="n">
-        <v>919.8439005526046</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="X23" t="n">
-        <v>687.5600872817448</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="Y23" t="n">
-        <v>687.5600872817448</v>
+        <v>65.26211651135227</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>257.1235097356004</v>
+        <v>299.1400758294795</v>
       </c>
       <c r="C24" t="n">
-        <v>106.4692792956926</v>
+        <v>148.4858453895718</v>
       </c>
       <c r="D24" t="n">
-        <v>106.4692792956926</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E24" t="n">
         <v>18.39687801105209</v>
@@ -6071,22 +6071,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K24" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L24" t="n">
-        <v>236.8598043922958</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M24" t="n">
-        <v>464.5211697790654</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N24" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O24" t="n">
-        <v>919.8439005526046</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P24" t="n">
-        <v>919.8439005526046</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q24" t="n">
         <v>919.8439005526046</v>
@@ -6104,16 +6104,16 @@
         <v>709.7807572312464</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2407556023135</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="W24" t="n">
-        <v>257.1235097356004</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="X24" t="n">
-        <v>257.1235097356004</v>
+        <v>630.2506271949337</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.1235097356004</v>
+        <v>450.9364102704409</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>342.1294829501126</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C25" t="n">
-        <v>342.1294829501126</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D25" t="n">
-        <v>342.1294829501126</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E25" t="n">
-        <v>342.1294829501126</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F25" t="n">
-        <v>342.1294829501126</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G25" t="n">
-        <v>173.8754290495581</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H25" t="n">
         <v>18.39687801105209</v>
@@ -6156,7 +6156,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M25" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N25" t="n">
         <v>633.8407713642671</v>
@@ -6165,34 +6165,34 @@
         <v>796.5455384059751</v>
       </c>
       <c r="P25" t="n">
-        <v>916.4217041825538</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q25" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R25" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S25" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T25" t="n">
-        <v>919.8439005526047</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U25" t="n">
-        <v>919.8439005526047</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V25" t="n">
-        <v>687.5600872817449</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W25" t="n">
-        <v>687.5600872817449</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X25" t="n">
-        <v>527.3375016414138</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.3375016414138</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="26">
@@ -6229,16 +6229,16 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K26" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L26" t="n">
-        <v>236.8598043922958</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M26" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N26" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O26" t="n">
         <v>919.8439005526046</v>
@@ -6256,22 +6256,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T26" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U26" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="V26" t="n">
-        <v>919.8439005526046</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="W26" t="n">
-        <v>687.5600872817448</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="X26" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y26" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>467.1866530569586</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C27" t="n">
-        <v>467.1866530569586</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D27" t="n">
-        <v>337.0976856784389</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E27" t="n">
-        <v>337.0976856784389</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F27" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G27" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H27" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I27" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J27" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K27" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L27" t="n">
-        <v>18.39687801105209</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M27" t="n">
-        <v>236.8598043922958</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O27" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P27" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q27" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R27" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S27" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T27" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U27" t="n">
-        <v>919.8439005526046</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V27" t="n">
-        <v>697.3038989236717</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W27" t="n">
-        <v>467.1866530569586</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="X27" t="n">
-        <v>467.1866530569586</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="Y27" t="n">
-        <v>467.1866530569586</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.09147137260223</v>
+        <v>610.7348924938804</v>
       </c>
       <c r="C28" t="n">
-        <v>99.09147137260223</v>
+        <v>440.5297745598696</v>
       </c>
       <c r="D28" t="n">
-        <v>99.09147137260223</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="E28" t="n">
-        <v>99.09147137260223</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="F28" t="n">
-        <v>99.09147137260223</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G28" t="n">
         <v>18.39687801105209</v>
@@ -6393,7 +6393,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M28" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N28" t="n">
         <v>633.8407713642671</v>
@@ -6417,19 +6417,19 @@
         <v>795.9429111851816</v>
       </c>
       <c r="U28" t="n">
-        <v>563.6590979143218</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V28" t="n">
-        <v>331.375284643462</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W28" t="n">
-        <v>331.375284643462</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X28" t="n">
-        <v>99.09147137260223</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.09147137260223</v>
+        <v>795.9429111851816</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="C29" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="D29" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="E29" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F29" t="n">
         <v>18.39687801105209</v>
@@ -6463,19 +6463,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J29" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K29" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L29" t="n">
-        <v>236.8598043922958</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M29" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N29" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O29" t="n">
         <v>919.8439005526046</v>
@@ -6490,25 +6490,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S29" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T29" t="n">
-        <v>696.3432981120213</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U29" t="n">
-        <v>696.3432981120213</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V29" t="n">
-        <v>464.0594848411615</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W29" t="n">
-        <v>231.7756715703017</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="X29" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18.39687801105209</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="C30" t="n">
-        <v>18.39687801105209</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="D30" t="n">
-        <v>18.39687801105209</v>
+        <v>453.9234011709268</v>
       </c>
       <c r="E30" t="n">
-        <v>18.39687801105209</v>
+        <v>317.4769102818145</v>
       </c>
       <c r="F30" t="n">
-        <v>18.39687801105209</v>
+        <v>193.0451041649463</v>
       </c>
       <c r="G30" t="n">
-        <v>18.39687801105209</v>
+        <v>72.98528623681078</v>
       </c>
       <c r="H30" t="n">
         <v>18.39687801105209</v>
@@ -6542,22 +6542,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J30" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K30" t="n">
-        <v>236.8598043922958</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L30" t="n">
-        <v>464.5211697790654</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M30" t="n">
         <v>464.5211697790654</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O30" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P30" t="n">
         <v>692.182535165835</v>
@@ -6566,28 +6566,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R30" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S30" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T30" t="n">
-        <v>919.8439005526046</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U30" t="n">
-        <v>919.8439005526046</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="V30" t="n">
-        <v>697.3038989236717</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="W30" t="n">
-        <v>467.1866530569586</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="X30" t="n">
-        <v>277.8795754069702</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="Y30" t="n">
-        <v>98.56535848247745</v>
+        <v>584.0123685494465</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>475.2239083130347</v>
+        <v>655.1687919369163</v>
       </c>
       <c r="C31" t="n">
-        <v>475.2239083130347</v>
+        <v>655.1687919369163</v>
       </c>
       <c r="D31" t="n">
-        <v>475.2239083130347</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="E31" t="n">
-        <v>475.2239083130347</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="F31" t="n">
-        <v>475.2239083130347</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G31" t="n">
-        <v>306.9698544124802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H31" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I31" t="n">
         <v>18.39687801105209</v>
@@ -6657,16 +6657,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V31" t="n">
-        <v>687.5600872817448</v>
+        <v>840.3768106282175</v>
       </c>
       <c r="W31" t="n">
-        <v>660.431927004336</v>
+        <v>840.3768106282175</v>
       </c>
       <c r="X31" t="n">
-        <v>660.431927004336</v>
+        <v>840.3768106282175</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.431927004336</v>
+        <v>840.3768106282175</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>881.8509868381266</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="C32" t="n">
-        <v>881.8509868381266</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="D32" t="n">
-        <v>649.5671735672668</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="E32" t="n">
-        <v>482.9645045527716</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="F32" t="n">
-        <v>250.6806912819119</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="G32" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="H32" t="n">
         <v>18.39687801105209</v>
@@ -6703,16 +6703,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K32" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="L32" t="n">
         <v>246.0582433978217</v>
       </c>
-      <c r="L32" t="n">
-        <v>473.7196087845913</v>
-      </c>
       <c r="M32" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N32" t="n">
-        <v>701.380974171361</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O32" t="n">
         <v>919.8439005526046</v>
@@ -6724,28 +6724,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R32" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S32" t="n">
-        <v>881.8509868381266</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T32" t="n">
-        <v>881.8509868381266</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U32" t="n">
-        <v>881.8509868381266</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V32" t="n">
-        <v>881.8509868381266</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W32" t="n">
-        <v>881.8509868381266</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="X32" t="n">
-        <v>881.8509868381266</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="Y32" t="n">
-        <v>881.8509868381266</v>
+        <v>65.26211651135227</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18.39687801105209</v>
+        <v>435.5865667185918</v>
       </c>
       <c r="C33" t="n">
-        <v>18.39687801105209</v>
+        <v>284.932336278684</v>
       </c>
       <c r="D33" t="n">
-        <v>18.39687801105209</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="E33" t="n">
         <v>18.39687801105209</v>
@@ -6785,7 +6785,7 @@
         <v>359.1732256175491</v>
       </c>
       <c r="L33" t="n">
-        <v>464.5211697790654</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M33" t="n">
         <v>464.5211697790654</v>
@@ -6794,10 +6794,10 @@
         <v>692.182535165835</v>
       </c>
       <c r="O33" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P33" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q33" t="n">
         <v>919.8439005526046</v>
@@ -6809,22 +6809,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T33" t="n">
-        <v>919.8439005526046</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U33" t="n">
-        <v>709.7807572312464</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2407556023135</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="W33" t="n">
-        <v>257.1235097356004</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="X33" t="n">
-        <v>67.81643208561201</v>
+        <v>587.3829011595532</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.39687801105209</v>
+        <v>587.3829011595532</v>
       </c>
     </row>
     <row r="34">
@@ -6888,19 +6888,19 @@
         <v>593.126827367731</v>
       </c>
       <c r="T34" t="n">
-        <v>360.8430140968712</v>
+        <v>473.7927524652685</v>
       </c>
       <c r="U34" t="n">
-        <v>128.5592008260114</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="V34" t="n">
-        <v>18.39687801105209</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="W34" t="n">
-        <v>18.39687801105209</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="X34" t="n">
-        <v>18.39687801105209</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="Y34" t="n">
         <v>18.39687801105209</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C35" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D35" t="n">
         <v>18.39687801105209</v>
@@ -6937,25 +6937,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J35" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K35" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L35" t="n">
-        <v>236.8598043922958</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="M35" t="n">
-        <v>464.5211697790654</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="N35" t="n">
-        <v>692.182535165835</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P35" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q35" t="n">
         <v>919.8439005526046</v>
@@ -6964,25 +6964,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S35" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T35" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U35" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V35" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W35" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X35" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y35" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>530.662139822063</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C36" t="n">
-        <v>530.662139822063</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D36" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E36" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F36" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G36" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H36" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I36" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J36" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K36" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L36" t="n">
-        <v>236.8598043922958</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M36" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N36" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="O36" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P36" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q36" t="n">
         <v>919.8439005526046</v>
@@ -7043,25 +7043,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S36" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T36" t="n">
-        <v>760.7793856887761</v>
+        <v>870.4243464780448</v>
       </c>
       <c r="U36" t="n">
-        <v>760.7793856887761</v>
+        <v>660.3612031566865</v>
       </c>
       <c r="V36" t="n">
-        <v>760.7793856887761</v>
+        <v>437.8212015277536</v>
       </c>
       <c r="W36" t="n">
-        <v>530.662139822063</v>
+        <v>207.7039556610404</v>
       </c>
       <c r="X36" t="n">
-        <v>530.662139822063</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y36" t="n">
-        <v>530.662139822063</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>319.7453572745287</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C37" t="n">
-        <v>319.7453572745287</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D37" t="n">
-        <v>319.7453572745287</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E37" t="n">
-        <v>319.7453572745287</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F37" t="n">
-        <v>319.7453572745287</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G37" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H37" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I37" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J37" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K37" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L37" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M37" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N37" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O37" t="n">
         <v>796.5455384059751</v>
@@ -7119,28 +7119,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R37" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S37" t="n">
-        <v>784.3129838162482</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T37" t="n">
-        <v>552.0291705453884</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U37" t="n">
-        <v>552.0291705453884</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V37" t="n">
-        <v>319.7453572745287</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="W37" t="n">
-        <v>319.7453572745287</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X37" t="n">
-        <v>319.7453572745287</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y37" t="n">
-        <v>319.7453572745287</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>696.3432981120213</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="C38" t="n">
-        <v>696.3432981120213</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="D38" t="n">
-        <v>696.3432981120213</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E38" t="n">
-        <v>464.0594848411615</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F38" t="n">
-        <v>231.7756715703017</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G38" t="n">
         <v>18.39687801105209</v>
@@ -7177,49 +7177,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K38" t="n">
-        <v>163.0466509198802</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L38" t="n">
-        <v>390.7080163066498</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M38" t="n">
-        <v>507.3369750248864</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N38" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O38" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P38" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q38" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S38" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T38" t="n">
-        <v>696.3432981120213</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U38" t="n">
-        <v>696.3432981120213</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V38" t="n">
-        <v>696.3432981120213</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="W38" t="n">
-        <v>696.3432981120213</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="X38" t="n">
-        <v>696.3432981120213</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="Y38" t="n">
-        <v>696.3432981120213</v>
+        <v>491.8368293385938</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>530.662139822063</v>
+        <v>680.0781907635957</v>
       </c>
       <c r="C39" t="n">
-        <v>530.662139822063</v>
+        <v>529.4239603236879</v>
       </c>
       <c r="D39" t="n">
-        <v>400.5731724435433</v>
+        <v>399.3349929451682</v>
       </c>
       <c r="E39" t="n">
-        <v>400.5731724435433</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F39" t="n">
-        <v>276.1413663266751</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G39" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H39" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I39" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J39" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K39" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L39" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M39" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N39" t="n">
         <v>692.182535165835</v>
@@ -7283,22 +7283,22 @@
         <v>760.996180350538</v>
       </c>
       <c r="T39" t="n">
-        <v>760.7793856887761</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U39" t="n">
-        <v>760.7793856887761</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V39" t="n">
-        <v>760.7793856887761</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W39" t="n">
-        <v>530.662139822063</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X39" t="n">
-        <v>530.662139822063</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y39" t="n">
-        <v>530.662139822063</v>
+        <v>760.996180350538</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>321.696421307985</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C40" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D40" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E40" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F40" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G40" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H40" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I40" t="n">
         <v>18.39687801105209</v>
@@ -7356,28 +7356,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R40" t="n">
-        <v>919.8439005526046</v>
+        <v>870.9886070615237</v>
       </c>
       <c r="S40" t="n">
-        <v>919.8439005526046</v>
+        <v>668.172523244073</v>
       </c>
       <c r="T40" t="n">
-        <v>919.8439005526046</v>
+        <v>668.172523244073</v>
       </c>
       <c r="U40" t="n">
-        <v>687.5600872817448</v>
+        <v>435.8887099732132</v>
       </c>
       <c r="V40" t="n">
-        <v>455.276274010885</v>
+        <v>435.8887099732132</v>
       </c>
       <c r="W40" t="n">
-        <v>455.276274010885</v>
+        <v>203.6048967023534</v>
       </c>
       <c r="X40" t="n">
-        <v>321.696421307985</v>
+        <v>203.6048967023534</v>
       </c>
       <c r="Y40" t="n">
-        <v>321.696421307985</v>
+        <v>203.6048967023534</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>482.9645045527716</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="C41" t="n">
-        <v>250.6806912819119</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="D41" t="n">
-        <v>18.39687801105209</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="E41" t="n">
-        <v>18.39687801105209</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="F41" t="n">
-        <v>18.39687801105209</v>
+        <v>389.017808189447</v>
       </c>
       <c r="G41" t="n">
-        <v>18.39687801105209</v>
+        <v>389.017808189447</v>
       </c>
       <c r="H41" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="I41" t="n">
         <v>18.39687801105209</v>
@@ -7414,19 +7414,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K41" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L41" t="n">
-        <v>163.0466509198802</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M41" t="n">
-        <v>390.7080163066498</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N41" t="n">
-        <v>618.3693816934194</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O41" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P41" t="n">
         <v>919.8439005526046</v>
@@ -7435,28 +7435,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R41" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S41" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T41" t="n">
-        <v>881.8509868381266</v>
+        <v>853.5854347311666</v>
       </c>
       <c r="U41" t="n">
-        <v>881.8509868381266</v>
+        <v>853.5854347311666</v>
       </c>
       <c r="V41" t="n">
-        <v>881.8509868381266</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="W41" t="n">
-        <v>881.8509868381266</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="X41" t="n">
-        <v>881.8509868381266</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="Y41" t="n">
-        <v>715.2483178236314</v>
+        <v>621.3016214603068</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18.39687801105209</v>
+        <v>453.8026720870193</v>
       </c>
       <c r="C42" t="n">
-        <v>18.39687801105209</v>
+        <v>392.9774694345755</v>
       </c>
       <c r="D42" t="n">
-        <v>18.39687801105209</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="E42" t="n">
-        <v>18.39687801105209</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F42" t="n">
-        <v>18.39687801105209</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G42" t="n">
         <v>18.39687801105209</v>
@@ -7490,25 +7490,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J42" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K42" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L42" t="n">
-        <v>236.8598043922958</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M42" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O42" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="P42" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q42" t="n">
         <v>919.8439005526046</v>
@@ -7517,25 +7517,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S42" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T42" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U42" t="n">
-        <v>709.7807572312464</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V42" t="n">
-        <v>487.2407556023135</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W42" t="n">
-        <v>257.1235097356004</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="X42" t="n">
-        <v>67.81643208561201</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.39687801105209</v>
+        <v>605.5990065279807</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>186.6509319116065</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="C43" t="n">
-        <v>186.6509319116065</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="D43" t="n">
-        <v>186.6509319116065</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="E43" t="n">
-        <v>186.6509319116065</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="F43" t="n">
         <v>186.6509319116065</v>
@@ -7593,28 +7593,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R43" t="n">
-        <v>883.5023717241859</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S43" t="n">
-        <v>883.5023717241859</v>
+        <v>731.8194921102909</v>
       </c>
       <c r="T43" t="n">
-        <v>883.5023717241859</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="U43" t="n">
-        <v>883.5023717241859</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="V43" t="n">
-        <v>651.2185584533261</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="W43" t="n">
-        <v>418.9347451824663</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="X43" t="n">
-        <v>186.6509319116065</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.6509319116065</v>
+        <v>499.5356788394311</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C44" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D44" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E44" t="n">
         <v>18.39687801105209</v>
@@ -7657,16 +7657,16 @@
         <v>390.7080163066498</v>
       </c>
       <c r="M44" t="n">
-        <v>390.7080163066498</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N44" t="n">
-        <v>390.7080163066498</v>
+        <v>846.030747080189</v>
       </c>
       <c r="O44" t="n">
-        <v>507.3369750248864</v>
+        <v>846.030747080189</v>
       </c>
       <c r="P44" t="n">
-        <v>734.998340411656</v>
+        <v>846.030747080189</v>
       </c>
       <c r="Q44" t="n">
         <v>919.8439005526046</v>
@@ -7678,22 +7678,22 @@
         <v>753.3303454936552</v>
       </c>
       <c r="T44" t="n">
-        <v>753.3303454936552</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U44" t="n">
-        <v>753.3303454936552</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="V44" t="n">
-        <v>753.3303454936552</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="W44" t="n">
-        <v>753.3303454936552</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="X44" t="n">
-        <v>753.3303454936552</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="Y44" t="n">
-        <v>753.3303454936552</v>
+        <v>297.5459297822121</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>530.662139822063</v>
+        <v>456.1330772104205</v>
       </c>
       <c r="C45" t="n">
-        <v>530.662139822063</v>
+        <v>456.1330772104205</v>
       </c>
       <c r="D45" t="n">
-        <v>400.5731724435433</v>
+        <v>326.0441098319009</v>
       </c>
       <c r="E45" t="n">
-        <v>400.5731724435433</v>
+        <v>189.5976189427886</v>
       </c>
       <c r="F45" t="n">
-        <v>276.1413663266751</v>
+        <v>65.16581282592038</v>
       </c>
       <c r="G45" t="n">
-        <v>156.0815483985396</v>
+        <v>65.16581282592038</v>
       </c>
       <c r="H45" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I45" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K45" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L45" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M45" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N45" t="n">
-        <v>473.7196087845913</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="O45" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P45" t="n">
         <v>692.182535165835</v>
@@ -7751,28 +7751,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S45" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T45" t="n">
-        <v>760.7793856887761</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U45" t="n">
-        <v>760.7793856887761</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="V45" t="n">
-        <v>760.7793856887761</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="W45" t="n">
-        <v>530.662139822063</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="X45" t="n">
-        <v>530.662139822063</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="Y45" t="n">
-        <v>530.662139822063</v>
+        <v>607.9294116513819</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>174.0299911085373</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="C46" t="n">
-        <v>174.0299911085373</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="D46" t="n">
-        <v>18.39687801105209</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="E46" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="F46" t="n">
         <v>18.39687801105209</v>
@@ -7830,28 +7830,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R46" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S46" t="n">
-        <v>919.8439005526046</v>
+        <v>719.1985513072217</v>
       </c>
       <c r="T46" t="n">
-        <v>919.8439005526046</v>
+        <v>719.1985513072217</v>
       </c>
       <c r="U46" t="n">
-        <v>870.8814309211167</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="V46" t="n">
-        <v>638.5976176502569</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="W46" t="n">
-        <v>406.3138043793971</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="X46" t="n">
-        <v>174.0299911085373</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.0299911085373</v>
+        <v>486.9147380363619</v>
       </c>
     </row>
   </sheetData>
@@ -9640,22 +9640,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>373.0193783173885</v>
+        <v>363.7280257865542</v>
       </c>
       <c r="L23" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M23" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
-        <v>369.7881139451009</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O23" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q23" t="n">
         <v>144.4986984183922</v>
@@ -9719,25 +9719,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L24" t="n">
-        <v>310.7299694642351</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M24" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N24" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9877,19 +9877,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L26" t="n">
-        <v>227.8069106117196</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M26" t="n">
-        <v>379.6860267358784</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N26" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O26" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M27" t="n">
-        <v>313.0567446566288</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N27" t="n">
-        <v>315.3330879923178</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O27" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L29" t="n">
-        <v>373.9177923378086</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M29" t="n">
-        <v>379.6860267358784</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N29" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O29" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>196.0090001429458</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>313.0567446566288</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O30" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>320.9491282940651</v>
@@ -10351,19 +10351,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M32" t="n">
-        <v>149.7250515977273</v>
+        <v>370.3946742050441</v>
       </c>
       <c r="N32" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O32" t="n">
-        <v>370.2334600314132</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P32" t="n">
         <v>150.3014472409252</v>
@@ -10433,22 +10433,22 @@
         <v>319.5579104714845</v>
       </c>
       <c r="L33" t="n">
-        <v>196.4724116665307</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N33" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P33" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10512,7 +10512,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L34" t="n">
-        <v>253.460534404825</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M34" t="n">
         <v>278.4750710187352</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>373.9177923378086</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M35" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
-        <v>379.0794664759352</v>
+        <v>266.925520346104</v>
       </c>
       <c r="O35" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L36" t="n">
-        <v>310.7299694642351</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M36" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N36" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10825,13 +10825,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>217.6171440604653</v>
       </c>
       <c r="L38" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M38" t="n">
-        <v>267.5320806060471</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N38" t="n">
         <v>379.0794664759352</v>
@@ -10843,7 +10843,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L39" t="n">
-        <v>310.7299694642351</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N39" t="n">
-        <v>315.3330879923178</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O39" t="n">
         <v>322.6485340270401</v>
@@ -11062,22 +11062,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L41" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M41" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N41" t="n">
-        <v>379.0794664759352</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O41" t="n">
-        <v>224.1225783053243</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L42" t="n">
-        <v>310.7299694642351</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M42" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N42" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11305,19 +11305,19 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O44" t="n">
-        <v>267.3708664324162</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>219.0574392996201</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,25 +11375,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P45" t="n">
-        <v>307.7529874266315</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q45" t="n">
         <v>320.9491282940651</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,19 +24214,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>347.1296129220984</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>274.4456338138771</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>47.8903487084271</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>108.6791781375389</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24378,10 +24378,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24417,19 +24417,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V25" t="n">
         <v>33.35857658923285</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X25" t="n">
-        <v>73.11915921091895</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>193.9401713525995</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24496,22 +24496,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W26" t="n">
         <v>137.3280695432443</v>
       </c>
       <c r="X26" t="n">
-        <v>155.5971038781226</v>
+        <v>174.3130733926166</v>
       </c>
       <c r="Y26" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24527,22 +24527,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>62.84073189745337</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
@@ -24578,7 +24578,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>152.2735888923496</v>
       </c>
     </row>
     <row r="28">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>58.48940318388675</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>86.68386593361429</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24657,16 +24657,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24688,10 +24688,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>352.1611035193237</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
@@ -24730,22 +24730,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V29" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>174.3130733926166</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>70.91157542984062</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>87.41444223540508</v>
+        <v>33.37191809190399</v>
       </c>
       <c r="I30" t="n">
         <v>48.89338144820752</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24843,22 +24843,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24897,10 +24897,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>33.35857658923285</v>
+        <v>184.6471327022408</v>
       </c>
       <c r="W31" t="n">
-        <v>253.6402193734994</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24922,19 +24922,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>233.6210473102707</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>274.4456338138771</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>123.1874880556995</v>
@@ -25049,22 +25049,22 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T33" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>33.49159115744814</v>
       </c>
       <c r="Y33" t="n">
-        <v>128.5957162214335</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.400886175297046</v>
+        <v>115.2211271600103</v>
       </c>
       <c r="U34" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V34" t="n">
-        <v>154.2588521405743</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25143,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>179.0370905938155</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -25204,22 +25204,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>206.7986161544501</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X35" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25238,22 +25238,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T36" t="n">
-        <v>151.3214742970202</v>
+        <v>126.2886151492663</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -25326,13 +25326,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>189.274294884032</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>3.400886175297046</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V37" t="n">
         <v>33.35857658923285</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>77.94747114645074</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25396,7 +25396,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>372.803115957535</v>
       </c>
       <c r="E38" t="n">
         <v>168.5967144964697</v>
@@ -25405,7 +25405,7 @@
         <v>182.7645189471708</v>
       </c>
       <c r="G38" t="n">
-        <v>197.7861223332197</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>70.16956140547883</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>174.9993469679363</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U39" t="n">
         <v>207.9625118881446</v>
@@ -25532,7 +25532,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25569,7 +25569,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>74.29523891757867</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
@@ -25608,13 +25608,13 @@
         <v>52.62342870236691</v>
       </c>
       <c r="V40" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X40" t="n">
-        <v>99.49546481897573</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>155.6697152529539</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>227.5891596642547</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>88.93073750958933</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>87.41444223540508</v>
@@ -25757,25 +25757,25 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>128.5957162214335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25794,10 +25794,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.68386593361424</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>14.6437586213855</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>358.7885908609594</v>
+        <v>350.0932121389857</v>
       </c>
       <c r="C44" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>151.6257423573478</v>
       </c>
       <c r="E44" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
@@ -25930,7 +25930,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -25952,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.11319676868548</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>174.9993469679363</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -26006,7 +26006,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>124.8110067000958</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>234.111558905345</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V46" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435173.5763354174</v>
+        <v>435173.5763354176</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>435173.5763354175</v>
+        <v>435173.5763354173</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435173.5763354175</v>
+        <v>435173.5763354174</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435173.5763354174</v>
+        <v>435173.5763354173</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>435173.5763354174</v>
+        <v>435173.5763354175</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>45087.39441464</v>
       </c>
       <c r="D2" t="n">
-        <v>45087.39441464001</v>
+        <v>45087.39441464</v>
       </c>
       <c r="E2" t="n">
         <v>45087.39441464</v>
@@ -26334,28 +26334,28 @@
         <v>45087.39441464</v>
       </c>
       <c r="I2" t="n">
-        <v>84175.94020608682</v>
+        <v>84175.94020608677</v>
       </c>
       <c r="J2" t="n">
         <v>84175.9402060868</v>
       </c>
       <c r="K2" t="n">
-        <v>84175.94020608679</v>
+        <v>84175.94020608677</v>
       </c>
       <c r="L2" t="n">
-        <v>84175.94020608679</v>
+        <v>84175.94020608677</v>
       </c>
       <c r="M2" t="n">
         <v>84175.94020608679</v>
       </c>
       <c r="N2" t="n">
+        <v>84175.94020608679</v>
+      </c>
+      <c r="O2" t="n">
+        <v>84175.94020608679</v>
+      </c>
+      <c r="P2" t="n">
         <v>84175.94020608677</v>
-      </c>
-      <c r="O2" t="n">
-        <v>84175.94020608682</v>
-      </c>
-      <c r="P2" t="n">
-        <v>84175.9402060868</v>
       </c>
     </row>
     <row r="3">
@@ -26438,10 +26438,10 @@
         <v>15029.13147154667</v>
       </c>
       <c r="I4" t="n">
+        <v>28522.60968068129</v>
+      </c>
+      <c r="J4" t="n">
         <v>28522.60968068128</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28522.60968068129</v>
       </c>
       <c r="K4" t="n">
         <v>28522.60968068128</v>
@@ -26450,7 +26450,7 @@
         <v>28522.60968068128</v>
       </c>
       <c r="M4" t="n">
-        <v>28522.60968068129</v>
+        <v>28522.60968068128</v>
       </c>
       <c r="N4" t="n">
         <v>28522.60968068128</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906661</v>
+        <v>-4996.930551051566</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906661</v>
+        <v>-4996.930551051566</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906654</v>
+        <v>-4996.930551051566</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309333</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="F6" t="n">
-        <v>30058.26294309334</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="G6" t="n">
-        <v>30058.26294309334</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="H6" t="n">
-        <v>30058.26294309333</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="I6" t="n">
-        <v>-19479.74923270634</v>
+        <v>-20581.60484525591</v>
       </c>
       <c r="J6" t="n">
-        <v>41671.70323700592</v>
+        <v>40569.84762445642</v>
       </c>
       <c r="K6" t="n">
-        <v>41671.70323700592</v>
+        <v>40569.84762445639</v>
       </c>
       <c r="L6" t="n">
-        <v>41671.70323700592</v>
+        <v>40569.84762445639</v>
       </c>
       <c r="M6" t="n">
-        <v>41671.70323700591</v>
+        <v>40569.8476244564</v>
       </c>
       <c r="N6" t="n">
-        <v>41671.7032370059</v>
+        <v>40569.84762445641</v>
       </c>
       <c r="O6" t="n">
-        <v>41671.70323700595</v>
+        <v>40569.8476244564</v>
       </c>
       <c r="P6" t="n">
-        <v>41671.70323700593</v>
+        <v>40569.84762445639</v>
       </c>
     </row>
   </sheetData>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L23" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>220.6696226073169</v>
       </c>
       <c r="O23" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L24" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M24" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L26" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="M26" t="n">
         <v>74.55874088122788</v>
-      </c>
-      <c r="M26" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="N26" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M27" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N27" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L28" t="n">
         <v>165.78549482202</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L29" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M29" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="N29" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>106.4120648096124</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>229.9609751381512</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="N32" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O32" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>106.4120648096125</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L34" t="n">
-        <v>165.7854948220201</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="O35" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L36" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M36" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N36" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O36" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="L38" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M38" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N38" t="n">
         <v>229.9609751381512</v>
@@ -37563,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L39" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N39" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O39" t="n">
         <v>229.9609751381512</v>
@@ -37782,22 +37782,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M41" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N41" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O41" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L42" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M42" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P42" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,19 +38025,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="P45" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N45" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>220.6696226073169</v>
       </c>
       <c r="Q45" t="n">
         <v>229.9609751381512</v>
